--- a/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,63 +452,63 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>288</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>252</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>126</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>144</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>252</v>
@@ -516,159 +516,159 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>108</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>216</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45397</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45404</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45411</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45418</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45425</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45439</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>84</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>912</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45460</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45481</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45495</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>84</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45537</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45544</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>60</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45551</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>120</v>
@@ -684,49 +684,89 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45565</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45572</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>192</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45579</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45586</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45593</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45600</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B41" t="n">
         <v>24</v>
       </c>
     </row>
@@ -741,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,89 +803,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>882</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>414</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>330</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>636</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1044</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>528</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>24</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -797,7 +798,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,719 @@
       </c>
       <c r="B14" t="n">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-38.82554119131935</v>
+      </c>
+      <c r="D2" t="n">
+        <v>322.6024916803933</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>149</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-35.9412143418525</v>
+      </c>
+      <c r="D3" t="n">
+        <v>322.6365226241792</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>148</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-34.88681792021994</v>
+      </c>
+      <c r="D4" t="n">
+        <v>323.2388326719374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>147</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-43.70693769658835</v>
+      </c>
+      <c r="D5" t="n">
+        <v>333.1334006695303</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>146</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-32.09783240312655</v>
+      </c>
+      <c r="D6" t="n">
+        <v>326.9300110043043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>142</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-47.12031871403227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>323.4814669115495</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>142</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-48.66740581112752</v>
+      </c>
+      <c r="D8" t="n">
+        <v>314.7568334265616</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>141</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-35.7472086156849</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.1545284556537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>140</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-44.79251488286394</v>
+      </c>
+      <c r="D10" t="n">
+        <v>321.3068678917327</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>139</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-37.60001195409031</v>
+      </c>
+      <c r="D11" t="n">
+        <v>330.9467085444097</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>138</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-51.50067434717143</v>
+      </c>
+      <c r="D12" t="n">
+        <v>320.8829755452511</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>138</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-65.00860894387027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>319.0950799925637</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>137</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-43.13014793157149</v>
+      </c>
+      <c r="D14" t="n">
+        <v>313.6841327256521</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>135</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-51.02535204314236</v>
+      </c>
+      <c r="D15" t="n">
+        <v>304.4254293743263</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>134</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-45.15420818849563</v>
+      </c>
+      <c r="D16" t="n">
+        <v>315.3619517513966</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>134</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-51.16715861797581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>310.12980293002</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>133</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-54.20172628090079</v>
+      </c>
+      <c r="D18" t="n">
+        <v>315.11978533226</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>132</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-47.91283506349123</v>
+      </c>
+      <c r="D19" t="n">
+        <v>302.2986735327142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>131</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-50.69320666564465</v>
+      </c>
+      <c r="D20" t="n">
+        <v>303.4579801501862</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>130</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-42.1852297309227</v>
+      </c>
+      <c r="D21" t="n">
+        <v>322.3585691520506</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>130</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-61.68792945779048</v>
+      </c>
+      <c r="D22" t="n">
+        <v>303.2413738465746</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-56.53904289857172</v>
+      </c>
+      <c r="D23" t="n">
+        <v>313.2495093178495</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>128</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-45.1982524069681</v>
+      </c>
+      <c r="D24" t="n">
+        <v>313.4916527362117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>127</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-54.00942284398861</v>
+      </c>
+      <c r="D25" t="n">
+        <v>307.7284699362143</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>126</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-46.30245902683105</v>
+      </c>
+      <c r="D26" t="n">
+        <v>295.6438240247406</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>124</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-58.5963628770498</v>
+      </c>
+      <c r="D27" t="n">
+        <v>298.2470083850637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>123</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.54875628988244</v>
+      </c>
+      <c r="D28" t="n">
+        <v>303.8266063740492</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>122</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-50.67383667816667</v>
+      </c>
+      <c r="D29" t="n">
+        <v>304.178918878507</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>121</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-54.38261538113193</v>
+      </c>
+      <c r="D30" t="n">
+        <v>300.3961905244024</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>119</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-69.23966595451357</v>
+      </c>
+      <c r="D31" t="n">
+        <v>295.4000547114027</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>118</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-61.71397370747485</v>
+      </c>
+      <c r="D32" t="n">
+        <v>298.8409581774545</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>114</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-64.67770759286327</v>
+      </c>
+      <c r="D33" t="n">
+        <v>310.8444855401764</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>114</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-71.82788784535126</v>
+      </c>
+      <c r="D34" t="n">
+        <v>300.059294696376</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>113</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-63.28733479282074</v>
+      </c>
+      <c r="D35" t="n">
+        <v>295.613804473445</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>111</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-69.23024657165493</v>
+      </c>
+      <c r="D36" t="n">
+        <v>292.8645223227371</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>110</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-60.7141428993279</v>
+      </c>
+      <c r="D37" t="n">
+        <v>283.6492877782957</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>110</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-69.30005789310522</v>
+      </c>
+      <c r="D38" t="n">
+        <v>300.0450879158885</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>109</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-77.09557908254828</v>
+      </c>
+      <c r="D39" t="n">
+        <v>292.9178082218697</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>108</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-56.9657984932936</v>
+      </c>
+      <c r="D40" t="n">
+        <v>288.1835482787429</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>107</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-75.65232272591676</v>
+      </c>
+      <c r="D41" t="n">
+        <v>285.9452569766532</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>106</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-85.17823296157727</v>
+      </c>
+      <c r="D42" t="n">
+        <v>290.9837152460105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>106</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-74.85499864285508</v>
+      </c>
+      <c r="D43" t="n">
+        <v>288.1558202843386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-74.78172307867477</v>
+      </c>
+      <c r="D44" t="n">
+        <v>297.1357696136095</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>104</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-76.38815415989356</v>
+      </c>
+      <c r="D45" t="n">
+        <v>281.0383241742708</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>103</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-76.03321130753217</v>
+      </c>
+      <c r="D46" t="n">
+        <v>294.928678064139</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>102</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-75.5264843240721</v>
+      </c>
+      <c r="D47" t="n">
+        <v>292.7599449039957</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>102</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-87.56761390696485</v>
+      </c>
+      <c r="D48" t="n">
+        <v>285.4931419443886</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>101</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-80.37593274885607</v>
+      </c>
+      <c r="D49" t="n">
+        <v>287.0766046689053</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
+++ b/po_analysis_by_asin/B0CKS6BMH7_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>150</v>
       </c>
-      <c r="C2" t="n">
-        <v>-38.82554119131935</v>
-      </c>
-      <c r="D2" t="n">
-        <v>322.6024916803933</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>149</v>
       </c>
-      <c r="C3" t="n">
-        <v>-35.9412143418525</v>
-      </c>
-      <c r="D3" t="n">
-        <v>322.6365226241792</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>148</v>
       </c>
-      <c r="C4" t="n">
-        <v>-34.88681792021994</v>
-      </c>
-      <c r="D4" t="n">
-        <v>323.2388326719374</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>147</v>
       </c>
-      <c r="C5" t="n">
-        <v>-43.70693769658835</v>
-      </c>
-      <c r="D5" t="n">
-        <v>333.1334006695303</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>146</v>
       </c>
-      <c r="C6" t="n">
-        <v>-32.09783240312655</v>
-      </c>
-      <c r="D6" t="n">
-        <v>326.9300110043043</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>142</v>
       </c>
-      <c r="C7" t="n">
-        <v>-47.12031871403227</v>
-      </c>
-      <c r="D7" t="n">
-        <v>323.4814669115495</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>142</v>
       </c>
-      <c r="C8" t="n">
-        <v>-48.66740581112752</v>
-      </c>
-      <c r="D8" t="n">
-        <v>314.7568334265616</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>141</v>
       </c>
-      <c r="C9" t="n">
-        <v>-35.7472086156849</v>
-      </c>
-      <c r="D9" t="n">
-        <v>329.1545284556537</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>140</v>
       </c>
-      <c r="C10" t="n">
-        <v>-44.79251488286394</v>
-      </c>
-      <c r="D10" t="n">
-        <v>321.3068678917327</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>139</v>
       </c>
-      <c r="C11" t="n">
-        <v>-37.60001195409031</v>
-      </c>
-      <c r="D11" t="n">
-        <v>330.9467085444097</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>138</v>
       </c>
-      <c r="C12" t="n">
-        <v>-51.50067434717143</v>
-      </c>
-      <c r="D12" t="n">
-        <v>320.8829755452511</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>138</v>
       </c>
-      <c r="C13" t="n">
-        <v>-65.00860894387027</v>
-      </c>
-      <c r="D13" t="n">
-        <v>319.0950799925637</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>137</v>
       </c>
-      <c r="C14" t="n">
-        <v>-43.13014793157149</v>
-      </c>
-      <c r="D14" t="n">
-        <v>313.6841327256521</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>135</v>
       </c>
-      <c r="C15" t="n">
-        <v>-51.02535204314236</v>
-      </c>
-      <c r="D15" t="n">
-        <v>304.4254293743263</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>134</v>
       </c>
-      <c r="C16" t="n">
-        <v>-45.15420818849563</v>
-      </c>
-      <c r="D16" t="n">
-        <v>315.3619517513966</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>134</v>
       </c>
-      <c r="C17" t="n">
-        <v>-51.16715861797581</v>
-      </c>
-      <c r="D17" t="n">
-        <v>310.12980293002</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>133</v>
       </c>
-      <c r="C18" t="n">
-        <v>-54.20172628090079</v>
-      </c>
-      <c r="D18" t="n">
-        <v>315.11978533226</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>132</v>
       </c>
-      <c r="C19" t="n">
-        <v>-47.91283506349123</v>
-      </c>
-      <c r="D19" t="n">
-        <v>302.2986735327142</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>131</v>
       </c>
-      <c r="C20" t="n">
-        <v>-50.69320666564465</v>
-      </c>
-      <c r="D20" t="n">
-        <v>303.4579801501862</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>130</v>
       </c>
-      <c r="C21" t="n">
-        <v>-42.1852297309227</v>
-      </c>
-      <c r="D21" t="n">
-        <v>322.3585691520506</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>130</v>
       </c>
-      <c r="C22" t="n">
-        <v>-61.68792945779048</v>
-      </c>
-      <c r="D22" t="n">
-        <v>303.2413738465746</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>129</v>
       </c>
-      <c r="C23" t="n">
-        <v>-56.53904289857172</v>
-      </c>
-      <c r="D23" t="n">
-        <v>313.2495093178495</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>128</v>
       </c>
-      <c r="C24" t="n">
-        <v>-45.1982524069681</v>
-      </c>
-      <c r="D24" t="n">
-        <v>313.4916527362117</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>127</v>
       </c>
-      <c r="C25" t="n">
-        <v>-54.00942284398861</v>
-      </c>
-      <c r="D25" t="n">
-        <v>307.7284699362143</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>126</v>
       </c>
-      <c r="C26" t="n">
-        <v>-46.30245902683105</v>
-      </c>
-      <c r="D26" t="n">
-        <v>295.6438240247406</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>124</v>
       </c>
-      <c r="C27" t="n">
-        <v>-58.5963628770498</v>
-      </c>
-      <c r="D27" t="n">
-        <v>298.2470083850637</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>123</v>
       </c>
-      <c r="C28" t="n">
-        <v>-43.54875628988244</v>
-      </c>
-      <c r="D28" t="n">
-        <v>303.8266063740492</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>122</v>
       </c>
-      <c r="C29" t="n">
-        <v>-50.67383667816667</v>
-      </c>
-      <c r="D29" t="n">
-        <v>304.178918878507</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>121</v>
       </c>
-      <c r="C30" t="n">
-        <v>-54.38261538113193</v>
-      </c>
-      <c r="D30" t="n">
-        <v>300.3961905244024</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>119</v>
       </c>
-      <c r="C31" t="n">
-        <v>-69.23966595451357</v>
-      </c>
-      <c r="D31" t="n">
-        <v>295.4000547114027</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>118</v>
       </c>
-      <c r="C32" t="n">
-        <v>-61.71397370747485</v>
-      </c>
-      <c r="D32" t="n">
-        <v>298.8409581774545</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>114</v>
       </c>
-      <c r="C33" t="n">
-        <v>-64.67770759286327</v>
-      </c>
-      <c r="D33" t="n">
-        <v>310.8444855401764</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>114</v>
       </c>
-      <c r="C34" t="n">
-        <v>-71.82788784535126</v>
-      </c>
-      <c r="D34" t="n">
-        <v>300.059294696376</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>113</v>
       </c>
-      <c r="C35" t="n">
-        <v>-63.28733479282074</v>
-      </c>
-      <c r="D35" t="n">
-        <v>295.613804473445</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>111</v>
       </c>
-      <c r="C36" t="n">
-        <v>-69.23024657165493</v>
-      </c>
-      <c r="D36" t="n">
-        <v>292.8645223227371</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>110</v>
       </c>
-      <c r="C37" t="n">
-        <v>-60.7141428993279</v>
-      </c>
-      <c r="D37" t="n">
-        <v>283.6492877782957</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>110</v>
       </c>
-      <c r="C38" t="n">
-        <v>-69.30005789310522</v>
-      </c>
-      <c r="D38" t="n">
-        <v>300.0450879158885</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>109</v>
       </c>
-      <c r="C39" t="n">
-        <v>-77.09557908254828</v>
-      </c>
-      <c r="D39" t="n">
-        <v>292.9178082218697</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>108</v>
       </c>
-      <c r="C40" t="n">
-        <v>-56.9657984932936</v>
-      </c>
-      <c r="D40" t="n">
-        <v>288.1835482787429</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>107</v>
       </c>
-      <c r="C41" t="n">
-        <v>-75.65232272591676</v>
-      </c>
-      <c r="D41" t="n">
-        <v>285.9452569766532</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>106</v>
       </c>
-      <c r="C42" t="n">
-        <v>-85.17823296157727</v>
-      </c>
-      <c r="D42" t="n">
-        <v>290.9837152460105</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>106</v>
       </c>
-      <c r="C43" t="n">
-        <v>-74.85499864285508</v>
-      </c>
-      <c r="D43" t="n">
-        <v>288.1558202843386</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>105</v>
       </c>
-      <c r="C44" t="n">
-        <v>-74.78172307867477</v>
-      </c>
-      <c r="D44" t="n">
-        <v>297.1357696136095</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>104</v>
       </c>
-      <c r="C45" t="n">
-        <v>-76.38815415989356</v>
-      </c>
-      <c r="D45" t="n">
-        <v>281.0383241742708</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1570,12 +1296,6 @@
       <c r="B46" t="n">
         <v>103</v>
       </c>
-      <c r="C46" t="n">
-        <v>-76.03321130753217</v>
-      </c>
-      <c r="D46" t="n">
-        <v>294.928678064139</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1584,12 +1304,6 @@
       <c r="B47" t="n">
         <v>102</v>
       </c>
-      <c r="C47" t="n">
-        <v>-75.5264843240721</v>
-      </c>
-      <c r="D47" t="n">
-        <v>292.7599449039957</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1598,12 +1312,6 @@
       <c r="B48" t="n">
         <v>102</v>
       </c>
-      <c r="C48" t="n">
-        <v>-87.56761390696485</v>
-      </c>
-      <c r="D48" t="n">
-        <v>285.4931419443886</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1611,12 +1319,6 @@
       </c>
       <c r="B49" t="n">
         <v>101</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-80.37593274885607</v>
-      </c>
-      <c r="D49" t="n">
-        <v>287.0766046689053</v>
       </c>
     </row>
   </sheetData>
